--- a/Sufficient data WITH_PO/B08KGVH7YC_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B08KGVH7YC_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>45704.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>45711.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>45718.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>45725.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>45732.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>45739.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>45746.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>45753.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>45760.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
